--- a/2021/January/All Deails/06.01.2021/MC Bank Statement Jan-2021.xlsx
+++ b/2021/January/All Deails/06.01.2021/MC Bank Statement Jan-2021.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="599"/>
   </bookViews>
   <sheets>
     <sheet name="Jan 2021" sheetId="7" r:id="rId1"/>
@@ -2884,18 +2884,60 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2908,45 +2950,6 @@
     <xf numFmtId="0" fontId="39" fillId="35" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="11" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="39" fillId="35" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="39" fillId="35" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="39" fillId="35" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3017,9 +3020,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3113,7 +3113,7 @@
         <xdr:cNvPr id="1845" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47ED9286-E99E-4170-A6CD-A90D2E00B60F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3125,7 +3125,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3148,14 +3148,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3243,7 +3243,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3255,7 +3255,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3278,14 +3278,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3317,7 +3317,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AEF7B42F-C37B-44F8-8D5A-2ED7FEE15E8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3329,7 +3329,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3352,14 +3352,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -3663,8 +3663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3685,21 +3685,21 @@
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:8" ht="20.25">
-      <c r="B2" s="284" t="s">
+      <c r="B2" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="284"/>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
+      <c r="C2" s="285"/>
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" customHeight="1">
       <c r="A3" s="35"/>
-      <c r="B3" s="285" t="s">
+      <c r="B3" s="286" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="285"/>
-      <c r="D3" s="285"/>
-      <c r="E3" s="285"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="B4" s="36" t="s">
@@ -3829,14 +3829,14 @@
         <v>201</v>
       </c>
       <c r="C11" s="39">
-        <v>400000</v>
+        <v>420000</v>
       </c>
       <c r="D11" s="253">
         <v>500000</v>
       </c>
       <c r="E11" s="41">
         <f t="shared" si="0"/>
-        <v>676844</v>
+        <v>696844</v>
       </c>
       <c r="F11" s="31"/>
       <c r="G11" s="2"/>
@@ -3855,7 +3855,7 @@
       </c>
       <c r="E12" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="43"/>
@@ -3868,7 +3868,7 @@
       <c r="D13" s="39"/>
       <c r="E13" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F13" s="31"/>
       <c r="G13" s="2"/>
@@ -3881,7 +3881,7 @@
       <c r="D14" s="39"/>
       <c r="E14" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="2"/>
@@ -3894,7 +3894,7 @@
       <c r="D15" s="39"/>
       <c r="E15" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F15" s="31"/>
       <c r="G15" s="2"/>
@@ -3907,7 +3907,7 @@
       <c r="D16" s="39"/>
       <c r="E16" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="33"/>
@@ -3920,7 +3920,7 @@
       <c r="D17" s="39"/>
       <c r="E17" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="13"/>
@@ -3933,7 +3933,7 @@
       <c r="D18" s="39"/>
       <c r="E18" s="41">
         <f>E17+C18-D18</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="43"/>
@@ -3946,7 +3946,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F19" s="31"/>
       <c r="G19" s="43"/>
@@ -3959,7 +3959,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="43"/>
@@ -3972,7 +3972,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="41">
         <f>E20+C21-D21</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F21" s="31"/>
       <c r="G21" s="2"/>
@@ -3985,7 +3985,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="2"/>
@@ -3998,7 +3998,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="41">
         <f>E22+C23-D23</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F23" s="31"/>
       <c r="G23" s="2"/>
@@ -4011,7 +4011,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F24" s="31"/>
       <c r="G24" s="2"/>
@@ -4024,7 +4024,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F25" s="31"/>
       <c r="G25" s="2"/>
@@ -4037,7 +4037,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F26" s="31"/>
       <c r="G26" s="2"/>
@@ -4050,7 +4050,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F27" s="31"/>
       <c r="G27" s="2"/>
@@ -4063,7 +4063,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F28" s="31"/>
       <c r="G28" s="2"/>
@@ -4076,7 +4076,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F29" s="31"/>
       <c r="G29" s="2"/>
@@ -4089,7 +4089,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F30" s="31"/>
       <c r="G30" s="2"/>
@@ -4102,7 +4102,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F31" s="31"/>
       <c r="G31" s="2"/>
@@ -4115,7 +4115,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F32" s="31"/>
       <c r="G32" s="2"/>
@@ -4128,7 +4128,7 @@
       <c r="D33" s="42"/>
       <c r="E33" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="2"/>
@@ -4141,7 +4141,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F34" s="31"/>
       <c r="G34" s="2"/>
@@ -4154,7 +4154,7 @@
       <c r="D35" s="39"/>
       <c r="E35" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F35" s="31"/>
       <c r="G35" s="2"/>
@@ -4167,7 +4167,7 @@
       <c r="D36" s="39"/>
       <c r="E36" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F36" s="31"/>
       <c r="G36" s="2"/>
@@ -4180,7 +4180,7 @@
       <c r="D37" s="39"/>
       <c r="E37" s="41">
         <f t="shared" si="0"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F37" s="31"/>
       <c r="G37" s="2"/>
@@ -4193,7 +4193,7 @@
       <c r="D38" s="39"/>
       <c r="E38" s="41">
         <f t="shared" ref="E38:E69" si="1">E37+C38-D38</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F38" s="31"/>
       <c r="G38" s="2"/>
@@ -4206,7 +4206,7 @@
       <c r="D39" s="39"/>
       <c r="E39" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F39" s="31"/>
       <c r="G39" s="2"/>
@@ -4219,7 +4219,7 @@
       <c r="D40" s="39"/>
       <c r="E40" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F40" s="31"/>
       <c r="G40" s="2"/>
@@ -4232,7 +4232,7 @@
       <c r="D41" s="39"/>
       <c r="E41" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F41" s="31"/>
       <c r="G41" s="2"/>
@@ -4245,7 +4245,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F42" s="31"/>
       <c r="G42" s="2"/>
@@ -4258,7 +4258,7 @@
       <c r="D43" s="39"/>
       <c r="E43" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F43" s="31"/>
       <c r="G43" s="2"/>
@@ -4271,7 +4271,7 @@
       <c r="D44" s="39"/>
       <c r="E44" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F44" s="31"/>
       <c r="G44" s="2"/>
@@ -4284,7 +4284,7 @@
       <c r="D45" s="39"/>
       <c r="E45" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F45" s="31"/>
       <c r="G45" s="2"/>
@@ -4297,7 +4297,7 @@
       <c r="D46" s="39"/>
       <c r="E46" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F46" s="31"/>
       <c r="G46" s="2"/>
@@ -4310,7 +4310,7 @@
       <c r="D47" s="39"/>
       <c r="E47" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F47" s="31"/>
       <c r="G47" s="2"/>
@@ -4323,7 +4323,7 @@
       <c r="D48" s="39"/>
       <c r="E48" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F48" s="31"/>
       <c r="G48" s="2"/>
@@ -4335,7 +4335,7 @@
       <c r="D49" s="39"/>
       <c r="E49" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F49" s="31"/>
       <c r="G49" s="2"/>
@@ -4347,7 +4347,7 @@
       <c r="D50" s="39"/>
       <c r="E50" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F50" s="31"/>
       <c r="G50" s="2"/>
@@ -4359,7 +4359,7 @@
       <c r="D51" s="39"/>
       <c r="E51" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F51" s="31"/>
       <c r="G51" s="2"/>
@@ -4371,7 +4371,7 @@
       <c r="D52" s="39"/>
       <c r="E52" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F52" s="31"/>
       <c r="G52" s="2"/>
@@ -4383,7 +4383,7 @@
       <c r="D53" s="39"/>
       <c r="E53" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F53" s="31"/>
       <c r="G53" s="2"/>
@@ -4395,7 +4395,7 @@
       <c r="D54" s="39"/>
       <c r="E54" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F54" s="31"/>
       <c r="G54" s="2"/>
@@ -4407,7 +4407,7 @@
       <c r="D55" s="39"/>
       <c r="E55" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F55" s="31"/>
       <c r="G55" s="2"/>
@@ -4418,7 +4418,7 @@
       <c r="D56" s="39"/>
       <c r="E56" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F56" s="31"/>
       <c r="G56" s="2"/>
@@ -4429,7 +4429,7 @@
       <c r="D57" s="39"/>
       <c r="E57" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F57" s="31"/>
       <c r="G57" s="2"/>
@@ -4440,7 +4440,7 @@
       <c r="D58" s="39"/>
       <c r="E58" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F58" s="31"/>
       <c r="G58" s="2"/>
@@ -4451,7 +4451,7 @@
       <c r="D59" s="39"/>
       <c r="E59" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F59" s="31"/>
       <c r="G59" s="2"/>
@@ -4462,7 +4462,7 @@
       <c r="D60" s="39"/>
       <c r="E60" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F60" s="31"/>
       <c r="G60" s="2"/>
@@ -4473,7 +4473,7 @@
       <c r="D61" s="39"/>
       <c r="E61" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F61" s="31"/>
       <c r="G61" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="D62" s="39"/>
       <c r="E62" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F62" s="31"/>
       <c r="G62" s="2"/>
@@ -4495,7 +4495,7 @@
       <c r="D63" s="39"/>
       <c r="E63" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F63" s="31"/>
       <c r="G63" s="2"/>
@@ -4506,7 +4506,7 @@
       <c r="D64" s="39"/>
       <c r="E64" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F64" s="31"/>
       <c r="G64" s="2"/>
@@ -4517,7 +4517,7 @@
       <c r="D65" s="39"/>
       <c r="E65" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F65" s="31"/>
       <c r="G65" s="2"/>
@@ -4528,7 +4528,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F66" s="31"/>
       <c r="G66" s="2"/>
@@ -4539,7 +4539,7 @@
       <c r="D67" s="39"/>
       <c r="E67" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F67" s="31"/>
       <c r="G67" s="2"/>
@@ -4550,7 +4550,7 @@
       <c r="D68" s="39"/>
       <c r="E68" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F68" s="31"/>
       <c r="G68" s="2"/>
@@ -4561,7 +4561,7 @@
       <c r="D69" s="39"/>
       <c r="E69" s="41">
         <f t="shared" si="1"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F69" s="31"/>
       <c r="G69" s="2"/>
@@ -4572,7 +4572,7 @@
       <c r="D70" s="39"/>
       <c r="E70" s="41">
         <f t="shared" ref="E70:E82" si="2">E69+C70-D70</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F70" s="31"/>
       <c r="G70" s="2"/>
@@ -4583,7 +4583,7 @@
       <c r="D71" s="39"/>
       <c r="E71" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F71" s="31"/>
       <c r="G71" s="2"/>
@@ -4594,7 +4594,7 @@
       <c r="D72" s="39"/>
       <c r="E72" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F72" s="31"/>
       <c r="G72" s="2"/>
@@ -4605,7 +4605,7 @@
       <c r="D73" s="39"/>
       <c r="E73" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F73" s="31"/>
       <c r="G73" s="2"/>
@@ -4616,7 +4616,7 @@
       <c r="D74" s="39"/>
       <c r="E74" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F74" s="31"/>
       <c r="G74" s="2"/>
@@ -4627,7 +4627,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="2"/>
@@ -4638,7 +4638,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F76" s="31"/>
       <c r="G76" s="2"/>
@@ -4649,7 +4649,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F77" s="31"/>
       <c r="G77" s="2"/>
@@ -4660,7 +4660,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F78" s="31"/>
       <c r="G78" s="2"/>
@@ -4671,7 +4671,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F79" s="31"/>
       <c r="G79" s="2"/>
@@ -4682,7 +4682,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F80" s="31"/>
       <c r="G80" s="2"/>
@@ -4693,7 +4693,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F81" s="31"/>
       <c r="G81" s="2"/>
@@ -4704,7 +4704,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="41">
         <f t="shared" si="2"/>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F82" s="31"/>
       <c r="G82" s="2"/>
@@ -4713,7 +4713,7 @@
       <c r="B83" s="45"/>
       <c r="C83" s="41">
         <f>SUM(C5:C72)</f>
-        <v>2176844</v>
+        <v>2196844</v>
       </c>
       <c r="D83" s="41">
         <f>SUM(D5:D77)</f>
@@ -4721,7 +4721,7 @@
       </c>
       <c r="E83" s="66">
         <f>E71</f>
-        <v>976844</v>
+        <v>996844</v>
       </c>
       <c r="F83" s="32"/>
       <c r="G83" s="2"/>
@@ -4762,73 +4762,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="287" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-      <c r="H1" s="292"/>
-      <c r="I1" s="292"/>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
-      <c r="P1" s="292"/>
-      <c r="Q1" s="292"/>
-      <c r="R1" s="292"/>
-      <c r="S1" s="292"/>
+      <c r="B1" s="287"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="287"/>
+      <c r="H1" s="287"/>
+      <c r="I1" s="287"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="287"/>
+      <c r="P1" s="287"/>
+      <c r="Q1" s="287"/>
+      <c r="R1" s="287"/>
+      <c r="S1" s="287"/>
     </row>
     <row r="2" spans="1:26" s="202" customFormat="1" ht="18">
-      <c r="A2" s="293" t="s">
+      <c r="A2" s="288" t="s">
         <v>95</v>
       </c>
-      <c r="B2" s="293"/>
-      <c r="C2" s="293"/>
-      <c r="D2" s="293"/>
-      <c r="E2" s="293"/>
-      <c r="F2" s="293"/>
-      <c r="G2" s="293"/>
-      <c r="H2" s="293"/>
-      <c r="I2" s="293"/>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="293"/>
-      <c r="P2" s="293"/>
-      <c r="Q2" s="293"/>
-      <c r="R2" s="293"/>
-      <c r="S2" s="293"/>
+      <c r="B2" s="288"/>
+      <c r="C2" s="288"/>
+      <c r="D2" s="288"/>
+      <c r="E2" s="288"/>
+      <c r="F2" s="288"/>
+      <c r="G2" s="288"/>
+      <c r="H2" s="288"/>
+      <c r="I2" s="288"/>
+      <c r="J2" s="288"/>
+      <c r="K2" s="288"/>
+      <c r="L2" s="288"/>
+      <c r="M2" s="288"/>
+      <c r="N2" s="288"/>
+      <c r="O2" s="288"/>
+      <c r="P2" s="288"/>
+      <c r="Q2" s="288"/>
+      <c r="R2" s="288"/>
+      <c r="S2" s="288"/>
     </row>
     <row r="3" spans="1:26" s="203" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="294" t="s">
+      <c r="A3" s="289" t="s">
         <v>181</v>
       </c>
-      <c r="B3" s="295"/>
-      <c r="C3" s="295"/>
-      <c r="D3" s="295"/>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="295"/>
-      <c r="J3" s="295"/>
-      <c r="K3" s="295"/>
-      <c r="L3" s="295"/>
-      <c r="M3" s="295"/>
-      <c r="N3" s="295"/>
-      <c r="O3" s="295"/>
-      <c r="P3" s="295"/>
-      <c r="Q3" s="295"/>
-      <c r="R3" s="295"/>
-      <c r="S3" s="296"/>
+      <c r="B3" s="290"/>
+      <c r="C3" s="290"/>
+      <c r="D3" s="290"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="290"/>
+      <c r="J3" s="290"/>
+      <c r="K3" s="290"/>
+      <c r="L3" s="290"/>
+      <c r="M3" s="290"/>
+      <c r="N3" s="290"/>
+      <c r="O3" s="290"/>
+      <c r="P3" s="290"/>
+      <c r="Q3" s="290"/>
+      <c r="R3" s="290"/>
+      <c r="S3" s="291"/>
       <c r="U3" s="115"/>
       <c r="V3" s="8"/>
       <c r="W3" s="8"/>
@@ -4837,58 +4837,58 @@
       <c r="Z3" s="29"/>
     </row>
     <row r="4" spans="1:26" s="205" customFormat="1">
-      <c r="A4" s="297" t="s">
+      <c r="A4" s="292" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="299" t="s">
+      <c r="B4" s="294" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="286" t="s">
+      <c r="C4" s="296" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="286" t="s">
+      <c r="D4" s="296" t="s">
         <v>99</v>
       </c>
-      <c r="E4" s="286" t="s">
+      <c r="E4" s="296" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="286" t="s">
+      <c r="F4" s="296" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="286" t="s">
+      <c r="G4" s="296" t="s">
         <v>102</v>
       </c>
-      <c r="H4" s="286" t="s">
+      <c r="H4" s="296" t="s">
         <v>103</v>
       </c>
-      <c r="I4" s="286" t="s">
+      <c r="I4" s="296" t="s">
         <v>126</v>
       </c>
-      <c r="J4" s="286" t="s">
+      <c r="J4" s="296" t="s">
         <v>104</v>
       </c>
-      <c r="K4" s="286" t="s">
+      <c r="K4" s="296" t="s">
         <v>105</v>
       </c>
-      <c r="L4" s="286" t="s">
+      <c r="L4" s="296" t="s">
         <v>106</v>
       </c>
-      <c r="M4" s="286" t="s">
+      <c r="M4" s="296" t="s">
         <v>107</v>
       </c>
-      <c r="N4" s="286" t="s">
+      <c r="N4" s="296" t="s">
         <v>108</v>
       </c>
-      <c r="O4" s="288" t="s">
+      <c r="O4" s="302" t="s">
         <v>212</v>
       </c>
-      <c r="P4" s="290" t="s">
+      <c r="P4" s="304" t="s">
         <v>109</v>
       </c>
-      <c r="Q4" s="303" t="s">
+      <c r="Q4" s="300" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="301" t="s">
+      <c r="R4" s="298" t="s">
         <v>110</v>
       </c>
       <c r="S4" s="204" t="s">
@@ -4901,24 +4901,24 @@
       <c r="Y4" s="207"/>
     </row>
     <row r="5" spans="1:26" s="205" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="298"/>
-      <c r="B5" s="300"/>
-      <c r="C5" s="287"/>
-      <c r="D5" s="287"/>
-      <c r="E5" s="287"/>
-      <c r="F5" s="287"/>
-      <c r="G5" s="287"/>
-      <c r="H5" s="287"/>
-      <c r="I5" s="287"/>
-      <c r="J5" s="287"/>
-      <c r="K5" s="287"/>
-      <c r="L5" s="287"/>
-      <c r="M5" s="287"/>
-      <c r="N5" s="287"/>
-      <c r="O5" s="289"/>
-      <c r="P5" s="291"/>
-      <c r="Q5" s="304"/>
-      <c r="R5" s="302"/>
+      <c r="A5" s="293"/>
+      <c r="B5" s="295"/>
+      <c r="C5" s="297"/>
+      <c r="D5" s="297"/>
+      <c r="E5" s="297"/>
+      <c r="F5" s="297"/>
+      <c r="G5" s="297"/>
+      <c r="H5" s="297"/>
+      <c r="I5" s="297"/>
+      <c r="J5" s="297"/>
+      <c r="K5" s="297"/>
+      <c r="L5" s="297"/>
+      <c r="M5" s="297"/>
+      <c r="N5" s="297"/>
+      <c r="O5" s="303"/>
+      <c r="P5" s="305"/>
+      <c r="Q5" s="301"/>
+      <c r="R5" s="299"/>
       <c r="S5" s="209" t="s">
         <v>111</v>
       </c>
@@ -7947,6 +7947,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="P4:P5"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A2:S2"/>
     <mergeCell ref="A3:S3"/>
@@ -7963,11 +7968,6 @@
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="K4:K5"/>
     <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
-    <mergeCell ref="P4:P5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7980,7 +7980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:BI252"/>
   <sheetViews>
-    <sheetView topLeftCell="A101" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C121" sqref="C121"/>
     </sheetView>
   </sheetViews>
@@ -8007,14 +8007,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" ht="19.5">
-      <c r="A1" s="311" t="s">
+      <c r="A1" s="312" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="311"/>
-      <c r="C1" s="311"/>
-      <c r="D1" s="311"/>
-      <c r="E1" s="311"/>
-      <c r="F1" s="311"/>
+      <c r="B1" s="312"/>
+      <c r="C1" s="312"/>
+      <c r="D1" s="312"/>
+      <c r="E1" s="312"/>
+      <c r="F1" s="312"/>
       <c r="L1" s="101"/>
       <c r="M1" s="260"/>
       <c r="N1" s="260"/>
@@ -8067,14 +8067,14 @@
       <c r="BI1" s="260"/>
     </row>
     <row r="2" spans="1:61" ht="15">
-      <c r="A2" s="312" t="s">
+      <c r="A2" s="313" t="s">
         <v>182</v>
       </c>
-      <c r="B2" s="312"/>
-      <c r="C2" s="312"/>
-      <c r="D2" s="312"/>
-      <c r="E2" s="312"/>
-      <c r="F2" s="312"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
+      <c r="F2" s="313"/>
       <c r="L2" s="101"/>
       <c r="M2" s="260"/>
       <c r="N2" s="260"/>
@@ -8127,14 +8127,14 @@
       <c r="BI2" s="260"/>
     </row>
     <row r="3" spans="1:61">
-      <c r="A3" s="313" t="s">
+      <c r="A3" s="314" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="313"/>
-      <c r="C3" s="313"/>
-      <c r="D3" s="313"/>
-      <c r="E3" s="313"/>
-      <c r="F3" s="313"/>
+      <c r="B3" s="314"/>
+      <c r="C3" s="314"/>
+      <c r="D3" s="314"/>
+      <c r="E3" s="314"/>
+      <c r="F3" s="314"/>
       <c r="K3" s="260"/>
       <c r="L3" s="101"/>
       <c r="M3" s="260"/>
@@ -10350,12 +10350,12 @@
       <c r="BI34" s="260"/>
     </row>
     <row r="35" spans="1:61" ht="13.5" thickBot="1">
-      <c r="A35" s="314" t="s">
+      <c r="A35" s="315" t="s">
         <v>43</v>
       </c>
-      <c r="B35" s="315"/>
-      <c r="C35" s="315"/>
-      <c r="D35" s="316"/>
+      <c r="B35" s="316"/>
+      <c r="C35" s="316"/>
+      <c r="D35" s="317"/>
       <c r="E35" s="115"/>
       <c r="F35" s="117"/>
       <c r="G35" s="131"/>
@@ -10928,13 +10928,13 @@
         <v>201</v>
       </c>
       <c r="E43" s="115"/>
-      <c r="F43" s="317" t="s">
+      <c r="F43" s="318" t="s">
         <v>53</v>
       </c>
-      <c r="G43" s="317"/>
-      <c r="H43" s="317"/>
-      <c r="I43" s="317"/>
-      <c r="J43" s="317"/>
+      <c r="G43" s="318"/>
+      <c r="H43" s="318"/>
+      <c r="I43" s="318"/>
+      <c r="J43" s="318"/>
       <c r="K43" s="148"/>
       <c r="L43" s="106"/>
       <c r="M43" s="260"/>
@@ -12221,17 +12221,17 @@
       <c r="BI61" s="260"/>
     </row>
     <row r="62" spans="1:61">
-      <c r="A62" s="318" t="s">
+      <c r="A62" s="319" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="319"/>
+      <c r="B62" s="320"/>
       <c r="C62" s="155"/>
       <c r="D62" s="162"/>
       <c r="E62" s="123"/>
-      <c r="F62" s="305" t="s">
+      <c r="F62" s="306" t="s">
         <v>149</v>
       </c>
-      <c r="G62" s="305"/>
+      <c r="G62" s="306"/>
       <c r="H62" s="259"/>
       <c r="I62" s="259"/>
       <c r="J62" s="163" t="s">
@@ -16675,10 +16675,10 @@
       <c r="BI118" s="260"/>
     </row>
     <row r="119" spans="1:61">
-      <c r="A119" s="306" t="s">
+      <c r="A119" s="307" t="s">
         <v>93</v>
       </c>
-      <c r="B119" s="307"/>
+      <c r="B119" s="308"/>
       <c r="C119" s="178">
         <f>SUM(C37:C118)</f>
         <v>2975029</v>
@@ -16830,10 +16830,10 @@
       <c r="BI120" s="260"/>
     </row>
     <row r="121" spans="1:61">
-      <c r="A121" s="308" t="s">
+      <c r="A121" s="309" t="s">
         <v>94</v>
       </c>
-      <c r="B121" s="309"/>
+      <c r="B121" s="310"/>
       <c r="C121" s="183">
         <f>C119+L142</f>
         <v>2975029</v>
@@ -18862,8 +18862,8 @@
       <c r="N175" s="264"/>
     </row>
     <row r="176" spans="6:14">
-      <c r="F176" s="310"/>
-      <c r="G176" s="310"/>
+      <c r="F176" s="311"/>
+      <c r="G176" s="311"/>
       <c r="H176" s="260"/>
       <c r="I176" s="121"/>
       <c r="J176" s="101"/>
@@ -19522,7 +19522,7 @@
   </sheetPr>
   <dimension ref="A1:AC222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I26" sqref="H24:I26"/>
     </sheetView>
   </sheetViews>
@@ -19541,24 +19541,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="26.25">
-      <c r="A1" s="320" t="s">
+      <c r="A1" s="321" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="321"/>
-      <c r="C1" s="321"/>
-      <c r="D1" s="321"/>
-      <c r="E1" s="322"/>
+      <c r="B1" s="322"/>
+      <c r="C1" s="322"/>
+      <c r="D1" s="322"/>
+      <c r="E1" s="323"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:29" ht="23.25">
-      <c r="A2" s="323" t="s">
+      <c r="A2" s="324" t="s">
         <v>202</v>
       </c>
-      <c r="B2" s="324"/>
-      <c r="C2" s="324"/>
-      <c r="D2" s="324"/>
-      <c r="E2" s="325"/>
+      <c r="B2" s="325"/>
+      <c r="C2" s="325"/>
+      <c r="D2" s="325"/>
+      <c r="E2" s="326"/>
       <c r="F2" s="5"/>
       <c r="G2" s="11"/>
       <c r="H2" s="8"/>
@@ -19810,7 +19810,7 @@
       <c r="AC8" s="8"/>
     </row>
     <row r="9" spans="1:29" ht="21.75">
-      <c r="A9" s="329" t="s">
+      <c r="A9" s="284" t="s">
         <v>212</v>
       </c>
       <c r="B9" s="74">
@@ -20046,13 +20046,13 @@
       <c r="AC14" s="8"/>
     </row>
     <row r="15" spans="1:29" ht="22.5">
-      <c r="A15" s="326" t="s">
+      <c r="A15" s="327" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="327"/>
-      <c r="C15" s="327"/>
-      <c r="D15" s="327"/>
-      <c r="E15" s="328"/>
+      <c r="B15" s="328"/>
+      <c r="C15" s="328"/>
+      <c r="D15" s="328"/>
+      <c r="E15" s="329"/>
       <c r="F15" s="5"/>
       <c r="G15" s="9"/>
       <c r="H15" s="28"/>
